--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2171.189119143377</v>
+        <v>2295.906996543186</v>
       </c>
       <c r="AB2" t="n">
-        <v>2970.71673891566</v>
+        <v>3141.361240938686</v>
       </c>
       <c r="AC2" t="n">
-        <v>2687.195702780679</v>
+        <v>2841.554133031572</v>
       </c>
       <c r="AD2" t="n">
-        <v>2171189.119143377</v>
+        <v>2295906.996543186</v>
       </c>
       <c r="AE2" t="n">
-        <v>2970716.73891566</v>
+        <v>3141361.240938686</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.023827147773635e-07</v>
+        <v>1.525522752133363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.45442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2687195.702780679</v>
+        <v>2841554.133031572</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1046.829582097887</v>
+        <v>1119.645720183932</v>
       </c>
       <c r="AB3" t="n">
-        <v>1432.318417088069</v>
+        <v>1531.948669638686</v>
       </c>
       <c r="AC3" t="n">
-        <v>1295.619957632707</v>
+        <v>1385.741638711831</v>
       </c>
       <c r="AD3" t="n">
-        <v>1046829.582097887</v>
+        <v>1119645.720183932</v>
       </c>
       <c r="AE3" t="n">
-        <v>1432318.417088069</v>
+        <v>1531948.669638686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421124397478143e-06</v>
+        <v>2.402481304730669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1295619.957632707</v>
+        <v>1385741.638711832</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.914658551922</v>
+        <v>926.7307071294163</v>
       </c>
       <c r="AB4" t="n">
-        <v>1168.363707886715</v>
+        <v>1267.993837967785</v>
       </c>
       <c r="AC4" t="n">
-        <v>1056.856715414769</v>
+        <v>1146.978285712668</v>
       </c>
       <c r="AD4" t="n">
-        <v>853914.658551922</v>
+        <v>926730.7071294163</v>
       </c>
       <c r="AE4" t="n">
-        <v>1168363.707886715</v>
+        <v>1267993.837967785</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.615605845474133e-06</v>
+        <v>2.731261841998522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.54123263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1056856.715414769</v>
+        <v>1146978.285712668</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>768.1034888000264</v>
+        <v>830.5903940275114</v>
       </c>
       <c r="AB5" t="n">
-        <v>1050.953079710545</v>
+        <v>1136.450420170489</v>
       </c>
       <c r="AC5" t="n">
-        <v>950.6515928048814</v>
+        <v>1027.989187087599</v>
       </c>
       <c r="AD5" t="n">
-        <v>768103.4888000264</v>
+        <v>830590.3940275114</v>
       </c>
       <c r="AE5" t="n">
-        <v>1050953.079710545</v>
+        <v>1136450.420170489</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.721856391714862e-06</v>
+        <v>2.910883662166941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76649305555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>950651.5928048814</v>
+        <v>1027989.187087599</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.355115403224</v>
+        <v>785.6714284301167</v>
       </c>
       <c r="AB6" t="n">
-        <v>989.7263810701349</v>
+        <v>1074.990309755231</v>
       </c>
       <c r="AC6" t="n">
-        <v>895.2682843505007</v>
+        <v>972.3947433505671</v>
       </c>
       <c r="AD6" t="n">
-        <v>723355.115403224</v>
+        <v>785671.4284301167</v>
       </c>
       <c r="AE6" t="n">
-        <v>989726.3810701349</v>
+        <v>1074990.309755231</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.789266667976554e-06</v>
+        <v>3.024844078829154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.32378472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>895268.2843505007</v>
+        <v>972394.7433505671</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>693.9515772192219</v>
+        <v>746.024087750677</v>
       </c>
       <c r="AB7" t="n">
-        <v>949.4951629342302</v>
+        <v>1020.743069120398</v>
       </c>
       <c r="AC7" t="n">
-        <v>858.8766772086173</v>
+        <v>923.3247832254417</v>
       </c>
       <c r="AD7" t="n">
-        <v>693951.577219222</v>
+        <v>746024.087750677</v>
       </c>
       <c r="AE7" t="n">
-        <v>949495.1629342302</v>
+        <v>1020743.069120398</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834922658408642e-06</v>
+        <v>3.1020277959314e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>858876.6772086172</v>
+        <v>923324.7832254417</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.4559668652707</v>
+        <v>722.857531238184</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.6649911259175</v>
+        <v>989.0455644636634</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.42047267464</v>
+        <v>894.6524439254187</v>
       </c>
       <c r="AD8" t="n">
-        <v>660455.9668652707</v>
+        <v>722857.5312381841</v>
       </c>
       <c r="AE8" t="n">
-        <v>903664.9911259175</v>
+        <v>989045.5644636634</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.868907894640299e-06</v>
+        <v>3.159481523999331e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.84201388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>817420.47267464</v>
+        <v>894652.4439254187</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>644.7681521825158</v>
+        <v>707.1697165554293</v>
       </c>
       <c r="AB9" t="n">
-        <v>882.2002309794344</v>
+        <v>967.5808043171803</v>
       </c>
       <c r="AC9" t="n">
-        <v>798.0042791105571</v>
+        <v>875.2362503613357</v>
       </c>
       <c r="AD9" t="n">
-        <v>644768.1521825158</v>
+        <v>707169.7165554293</v>
       </c>
       <c r="AE9" t="n">
-        <v>882200.2309794344</v>
+        <v>967580.8043171803</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.890382082369093e-06</v>
+        <v>3.195784703822473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.71831597222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>798004.2791105572</v>
+        <v>875236.2503613357</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>627.9144791301931</v>
+        <v>690.3160435031064</v>
       </c>
       <c r="AB10" t="n">
-        <v>859.1402919776671</v>
+        <v>944.5208653154127</v>
       </c>
       <c r="AC10" t="n">
-        <v>777.1451483222908</v>
+        <v>854.3771195730695</v>
       </c>
       <c r="AD10" t="n">
-        <v>627914.479130193</v>
+        <v>690316.0435031063</v>
       </c>
       <c r="AE10" t="n">
-        <v>859140.291977667</v>
+        <v>944520.8653154128</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.912416466299507e-06</v>
+        <v>3.233034923119263e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.59461805555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>777145.1483222907</v>
+        <v>854377.1195730695</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>614.5914933003418</v>
+        <v>666.7492551778175</v>
       </c>
       <c r="AB11" t="n">
-        <v>840.9111949966124</v>
+        <v>912.2757458354296</v>
       </c>
       <c r="AC11" t="n">
-        <v>760.6558107724096</v>
+        <v>825.2094290399464</v>
       </c>
       <c r="AD11" t="n">
-        <v>614591.4933003418</v>
+        <v>666749.2551778175</v>
       </c>
       <c r="AE11" t="n">
-        <v>840911.1949966124</v>
+        <v>912275.7458354295</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.926888201508042e-06</v>
+        <v>3.257500109521816e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.51432291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>760655.8107724097</v>
+        <v>825209.4290399464</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>600.6871690618367</v>
+        <v>652.6743387387204</v>
       </c>
       <c r="AB12" t="n">
-        <v>821.886685157997</v>
+        <v>893.0178242219672</v>
       </c>
       <c r="AC12" t="n">
-        <v>743.4469734517246</v>
+        <v>807.7894564366102</v>
       </c>
       <c r="AD12" t="n">
-        <v>600687.1690618367</v>
+        <v>652674.3387387204</v>
       </c>
       <c r="AE12" t="n">
-        <v>821886.6851579971</v>
+        <v>893017.8242219673</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.943413989455853e-06</v>
+        <v>3.285437773994408e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.42534722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>743446.9734517246</v>
+        <v>807789.4564366102</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>590.410037806583</v>
+        <v>642.3972074834667</v>
       </c>
       <c r="AB13" t="n">
-        <v>807.825060779527</v>
+        <v>878.9561998434973</v>
       </c>
       <c r="AC13" t="n">
-        <v>730.7273707683219</v>
+        <v>795.0698537532076</v>
       </c>
       <c r="AD13" t="n">
-        <v>590410.037806583</v>
+        <v>642397.2074834667</v>
       </c>
       <c r="AE13" t="n">
-        <v>807825.0607795271</v>
+        <v>878956.1998434972</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.95088327214413e-06</v>
+        <v>3.298064966976371e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.38628472222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>730727.3707683219</v>
+        <v>795069.8537532076</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>578.4059858935435</v>
+        <v>630.393155570427</v>
       </c>
       <c r="AB14" t="n">
-        <v>791.4005873707118</v>
+        <v>862.531726434682</v>
       </c>
       <c r="AC14" t="n">
-        <v>715.8704260497508</v>
+        <v>780.2129090346364</v>
       </c>
       <c r="AD14" t="n">
-        <v>578405.9858935435</v>
+        <v>630393.155570427</v>
       </c>
       <c r="AE14" t="n">
-        <v>791400.5873707118</v>
+        <v>862531.726434682</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.961060169806906e-06</v>
+        <v>3.315269517414295e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.33203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>715870.4260497508</v>
+        <v>780212.9090346363</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>570.8933720252315</v>
+        <v>622.8805417021151</v>
       </c>
       <c r="AB15" t="n">
-        <v>781.1214976429551</v>
+        <v>852.2526367069253</v>
       </c>
       <c r="AC15" t="n">
-        <v>706.5723582188181</v>
+        <v>770.9148412037036</v>
       </c>
       <c r="AD15" t="n">
-        <v>570893.3720252316</v>
+        <v>622880.5417021151</v>
       </c>
       <c r="AE15" t="n">
-        <v>781121.497642955</v>
+        <v>852252.6367069252</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.96712896199113e-06</v>
+        <v>3.32552911171214e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>706572.3582188181</v>
+        <v>770914.8412037037</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>569.4634691945789</v>
+        <v>621.4506388714625</v>
       </c>
       <c r="AB16" t="n">
-        <v>779.1650415071955</v>
+        <v>850.2961805711658</v>
       </c>
       <c r="AC16" t="n">
-        <v>704.802623510752</v>
+        <v>769.1451064956376</v>
       </c>
       <c r="AD16" t="n">
-        <v>569463.4691945789</v>
+        <v>621450.6388714626</v>
       </c>
       <c r="AE16" t="n">
-        <v>779165.0415071954</v>
+        <v>850296.1805711658</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.96983657696563e-06</v>
+        <v>3.3301064691681e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>704802.623510752</v>
+        <v>769145.1064956376</v>
       </c>
     </row>
   </sheetData>
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1511.816752612643</v>
+        <v>1612.637090196673</v>
       </c>
       <c r="AB2" t="n">
-        <v>2068.534377572531</v>
+        <v>2206.481211334378</v>
       </c>
       <c r="AC2" t="n">
-        <v>1871.11635978324</v>
+        <v>1995.897741340455</v>
       </c>
       <c r="AD2" t="n">
-        <v>1511816.752612643</v>
+        <v>1612637.090196673</v>
       </c>
       <c r="AE2" t="n">
-        <v>2068534.37757253</v>
+        <v>2206481.211334378</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.106101217127637e-06</v>
+        <v>1.915536141187748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.94965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1871116.35978324</v>
+        <v>1995897.741340455</v>
       </c>
     </row>
     <row r="3">
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>847.3199308761295</v>
+        <v>917.7833135825583</v>
       </c>
       <c r="AB3" t="n">
-        <v>1159.340510541844</v>
+        <v>1255.75161938583</v>
       </c>
       <c r="AC3" t="n">
-        <v>1048.694679360356</v>
+        <v>1135.904447290112</v>
       </c>
       <c r="AD3" t="n">
-        <v>847319.9308761295</v>
+        <v>917783.3135825583</v>
       </c>
       <c r="AE3" t="n">
-        <v>1159340.510541844</v>
+        <v>1255751.61938583</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.587291949203247e-06</v>
+        <v>2.748857923880497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20529513888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1048694.679360356</v>
+        <v>1135904.447290112</v>
       </c>
     </row>
     <row r="4">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.0142019839553</v>
+        <v>766.5576090471161</v>
       </c>
       <c r="AB4" t="n">
-        <v>965.9997783027845</v>
+        <v>1048.837938833212</v>
       </c>
       <c r="AC4" t="n">
-        <v>873.8061152507699</v>
+        <v>948.7383180042619</v>
       </c>
       <c r="AD4" t="n">
-        <v>706014.2019839553</v>
+        <v>766557.6090471161</v>
       </c>
       <c r="AE4" t="n">
-        <v>965999.7783027845</v>
+        <v>1048837.938833212</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.765106509169365e-06</v>
+        <v>3.056795579829383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>873806.11525077</v>
+        <v>948738.3180042619</v>
       </c>
     </row>
     <row r="5">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.7813894900401</v>
+        <v>711.1542043526086</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.427807548896</v>
+        <v>973.0325563044764</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.4466273197057</v>
+        <v>880.1676947905463</v>
       </c>
       <c r="AD5" t="n">
-        <v>650781.38949004</v>
+        <v>711154.2043526086</v>
       </c>
       <c r="AE5" t="n">
-        <v>890427.8075488959</v>
+        <v>973032.5563044765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.858215273866452e-06</v>
+        <v>3.218040501249658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28038194444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>805446.6273197057</v>
+        <v>880167.6947905463</v>
       </c>
     </row>
     <row r="6">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>607.27213168628</v>
+        <v>667.7301978948691</v>
       </c>
       <c r="AB6" t="n">
-        <v>830.8965215288082</v>
+        <v>913.617914937038</v>
       </c>
       <c r="AC6" t="n">
-        <v>751.5969236846903</v>
+        <v>826.4235034062434</v>
       </c>
       <c r="AD6" t="n">
-        <v>607272.13168628</v>
+        <v>667730.1978948691</v>
       </c>
       <c r="AE6" t="n">
-        <v>830896.5215288082</v>
+        <v>913617.914937038</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.914911171041961e-06</v>
+        <v>3.31622594613939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>751596.9236846903</v>
+        <v>826423.5034062434</v>
       </c>
     </row>
     <row r="7">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>581.5439058547884</v>
+        <v>642.0019720633775</v>
       </c>
       <c r="AB7" t="n">
-        <v>795.6940278969455</v>
+        <v>878.4154213051753</v>
       </c>
       <c r="AC7" t="n">
-        <v>719.7541066380425</v>
+        <v>794.5806863595955</v>
       </c>
       <c r="AD7" t="n">
-        <v>581543.9058547884</v>
+        <v>642001.9720633775</v>
       </c>
       <c r="AE7" t="n">
-        <v>795694.0278969455</v>
+        <v>878415.4213051753</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.956829432326749e-06</v>
+        <v>3.388819614081712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.71180555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>719754.1066380425</v>
+        <v>794580.6863595955</v>
       </c>
     </row>
     <row r="8">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>562.4019460774401</v>
+        <v>622.8600122860294</v>
       </c>
       <c r="AB8" t="n">
-        <v>769.5031540459131</v>
+        <v>852.2245474541429</v>
       </c>
       <c r="AC8" t="n">
-        <v>696.0628530282303</v>
+        <v>770.8894327497834</v>
       </c>
       <c r="AD8" t="n">
-        <v>562401.9460774402</v>
+        <v>622860.0122860294</v>
       </c>
       <c r="AE8" t="n">
-        <v>769503.1540459131</v>
+        <v>852224.5474541429</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.982714441599383e-06</v>
+        <v>3.433647040368677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.57074652777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>696062.8530282303</v>
+        <v>770889.4327497834</v>
       </c>
     </row>
     <row r="9">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>543.7260552405289</v>
+        <v>594.093643113809</v>
       </c>
       <c r="AB9" t="n">
-        <v>743.9499762806968</v>
+        <v>812.8651320700702</v>
       </c>
       <c r="AC9" t="n">
-        <v>672.9484346848159</v>
+        <v>735.2864247286801</v>
       </c>
       <c r="AD9" t="n">
-        <v>543726.0552405289</v>
+        <v>594093.6431138089</v>
       </c>
       <c r="AE9" t="n">
-        <v>743949.9762806968</v>
+        <v>812865.1320700702</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.007440420606078e-06</v>
+        <v>3.476467268463687e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.44053819444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>672948.4346848159</v>
+        <v>735286.4247286802</v>
       </c>
     </row>
     <row r="10">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>526.9473302625162</v>
+        <v>577.3149181357962</v>
       </c>
       <c r="AB10" t="n">
-        <v>720.9925845406763</v>
+        <v>789.9077403300498</v>
       </c>
       <c r="AC10" t="n">
-        <v>652.1820641915612</v>
+        <v>714.5200542354255</v>
       </c>
       <c r="AD10" t="n">
-        <v>526947.3302625162</v>
+        <v>577314.9181357962</v>
       </c>
       <c r="AE10" t="n">
-        <v>720992.5845406762</v>
+        <v>789907.7403300498</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.025115632161646e-06</v>
+        <v>3.50707704089098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.34939236111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>652182.0641915612</v>
+        <v>714520.0542354255</v>
       </c>
     </row>
     <row r="11">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>518.0313774017485</v>
+        <v>568.3989652750286</v>
       </c>
       <c r="AB11" t="n">
-        <v>708.7933844924945</v>
+        <v>777.7085402818681</v>
       </c>
       <c r="AC11" t="n">
-        <v>641.1471386742932</v>
+        <v>703.4851287181575</v>
       </c>
       <c r="AD11" t="n">
-        <v>518031.3774017485</v>
+        <v>568398.9652750286</v>
       </c>
       <c r="AE11" t="n">
-        <v>708793.3844924945</v>
+        <v>777708.5402818681</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.032166399612774e-06</v>
+        <v>3.519287496558698e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.31467013888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>641147.1386742932</v>
+        <v>703485.1287181575</v>
       </c>
     </row>
     <row r="12">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>518.4934385651087</v>
+        <v>568.8610264383889</v>
       </c>
       <c r="AB12" t="n">
-        <v>709.4255969609038</v>
+        <v>778.3407527502774</v>
       </c>
       <c r="AC12" t="n">
-        <v>641.7190136720333</v>
+        <v>704.0570037158976</v>
       </c>
       <c r="AD12" t="n">
-        <v>518493.4385651087</v>
+        <v>568861.0264383889</v>
       </c>
       <c r="AE12" t="n">
-        <v>709425.5969609038</v>
+        <v>778340.7527502774</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.035257146988611e-06</v>
+        <v>3.524640025070575e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>641719.0136720333</v>
+        <v>704057.0037158977</v>
       </c>
     </row>
     <row r="13">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>520.4497753393708</v>
+        <v>570.8173632126509</v>
       </c>
       <c r="AB13" t="n">
-        <v>712.1023432429365</v>
+        <v>781.01749903231</v>
       </c>
       <c r="AC13" t="n">
-        <v>644.1402950457459</v>
+        <v>706.4782850896102</v>
       </c>
       <c r="AD13" t="n">
-        <v>520449.7753393708</v>
+        <v>570817.3632126509</v>
       </c>
       <c r="AE13" t="n">
-        <v>712102.3432429365</v>
+        <v>781017.49903231</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.035353732844106e-06</v>
+        <v>3.524807291586571e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.29730902777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>644140.2950457459</v>
+        <v>706478.2850896101</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.997742921977</v>
+        <v>681.6347100103924</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.5717760020611</v>
+        <v>932.642681837278</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.871592467865</v>
+        <v>843.6325732549527</v>
       </c>
       <c r="AD2" t="n">
-        <v>617997.742921977</v>
+        <v>681634.7100103924</v>
       </c>
       <c r="AE2" t="n">
-        <v>845571.7760020611</v>
+        <v>932642.6818372781</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760732335143113e-06</v>
+        <v>3.331684469588164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28342013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>764871.592467865</v>
+        <v>843632.5732549527</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.4521666293574</v>
+        <v>495.0290842014853</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.9602828124591</v>
+        <v>677.3206321463388</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.2693365230149</v>
+        <v>612.6781016397692</v>
       </c>
       <c r="AD3" t="n">
-        <v>449452.1666293574</v>
+        <v>495029.0842014853</v>
       </c>
       <c r="AE3" t="n">
-        <v>614960.2828124592</v>
+        <v>677320.6321463388</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.10087258425321e-06</v>
+        <v>3.975303015589281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>556269.3365230149</v>
+        <v>612678.1016397693</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.2111570038586</v>
+        <v>449.8180098255791</v>
       </c>
       <c r="AB4" t="n">
-        <v>540.7453404983924</v>
+        <v>615.4608456133923</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.137364142077</v>
+        <v>556.7221263127715</v>
       </c>
       <c r="AD4" t="n">
-        <v>395211.1570038586</v>
+        <v>449818.0098255791</v>
       </c>
       <c r="AE4" t="n">
-        <v>540745.3404983924</v>
+        <v>615460.8456133923</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.204876177533072e-06</v>
+        <v>4.17210019457885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.60763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>489137.364142077</v>
+        <v>556722.1263127715</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.1618928346169</v>
+        <v>448.7687456563375</v>
       </c>
       <c r="AB5" t="n">
-        <v>539.3096909717678</v>
+        <v>614.0251960867678</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.8387309913268</v>
+        <v>555.4234931620211</v>
       </c>
       <c r="AD5" t="n">
-        <v>394161.8928346169</v>
+        <v>448768.7456563375</v>
       </c>
       <c r="AE5" t="n">
-        <v>539309.6909717679</v>
+        <v>614025.1960867678</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.212636031124938e-06</v>
+        <v>4.186783507415376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.57074652777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>487838.7309913269</v>
+        <v>555423.4931620212</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>857.3038579197978</v>
+        <v>933.1915632970058</v>
       </c>
       <c r="AB2" t="n">
-        <v>1173.000959982766</v>
+        <v>1276.833866409139</v>
       </c>
       <c r="AC2" t="n">
-        <v>1061.051394679198</v>
+        <v>1154.974634246636</v>
       </c>
       <c r="AD2" t="n">
-        <v>857303.8579197978</v>
+        <v>933191.5632970058</v>
       </c>
       <c r="AE2" t="n">
-        <v>1173000.959982766</v>
+        <v>1276833.866409139</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.497918659774242e-06</v>
+        <v>2.728882487953164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.93706597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1061051.394679198</v>
+        <v>1154974.634246636</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.5706588216175</v>
+        <v>632.5504434954523</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.5211677851004</v>
+        <v>865.483422946528</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.3612528245908</v>
+        <v>782.8828997741239</v>
       </c>
       <c r="AD3" t="n">
-        <v>575570.6588216175</v>
+        <v>632550.4434954523</v>
       </c>
       <c r="AE3" t="n">
-        <v>787521.1677851004</v>
+        <v>865483.4229465279</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.895906409411396e-06</v>
+        <v>3.453929734890058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80121527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>712361.2528245908</v>
+        <v>782882.8997741239</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>499.3468763665456</v>
+        <v>556.2413201858087</v>
       </c>
       <c r="AB4" t="n">
-        <v>683.2284258741207</v>
+        <v>761.0739139133505</v>
       </c>
       <c r="AC4" t="n">
-        <v>618.0220638258122</v>
+        <v>688.4380877434066</v>
       </c>
       <c r="AD4" t="n">
-        <v>499346.8763665456</v>
+        <v>556241.3201858087</v>
       </c>
       <c r="AE4" t="n">
-        <v>683228.4258741207</v>
+        <v>761073.9139133504</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.035717649957504e-06</v>
+        <v>3.708635451689652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.99175347222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>618022.0638258122</v>
+        <v>688438.0877434066</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.3610743286197</v>
+        <v>518.255518147883</v>
       </c>
       <c r="AB5" t="n">
-        <v>631.2545757105178</v>
+        <v>709.1000637497476</v>
       </c>
       <c r="AC5" t="n">
-        <v>571.0085249760666</v>
+        <v>641.424548893661</v>
       </c>
       <c r="AD5" t="n">
-        <v>461361.0743286198</v>
+        <v>518255.5181478829</v>
       </c>
       <c r="AE5" t="n">
-        <v>631254.5757105178</v>
+        <v>709100.0637497476</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.110984763230853e-06</v>
+        <v>3.845755785954919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>571008.5249760667</v>
+        <v>641424.548893661</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.1737400235959</v>
+        <v>486.5716425724377</v>
       </c>
       <c r="AB6" t="n">
-        <v>600.8968860782774</v>
+        <v>665.7487873934842</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.5481306350423</v>
+        <v>602.2106575089412</v>
       </c>
       <c r="AD6" t="n">
-        <v>439173.7400235959</v>
+        <v>486571.6425724376</v>
       </c>
       <c r="AE6" t="n">
-        <v>600896.8860782774</v>
+        <v>665748.7873934843</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.146143784636622e-06</v>
+        <v>3.909807887303489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.42534722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>543548.1306350423</v>
+        <v>602210.6575089411</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.2671078135517</v>
+        <v>485.6650103623934</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.6563918907046</v>
+        <v>664.5082932059115</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.426027471687</v>
+        <v>601.0885543455856</v>
       </c>
       <c r="AD7" t="n">
-        <v>438267.1078135517</v>
+        <v>485665.0103623934</v>
       </c>
       <c r="AE7" t="n">
-        <v>599656.3918907046</v>
+        <v>664508.2932059115</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.150886643829188e-06</v>
+        <v>3.918448346722945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>542426.0274716871</v>
+        <v>601088.5543455856</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.1434498627028</v>
+        <v>518.874098319086</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.798032899768</v>
+        <v>709.9464324298187</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.9274837949747</v>
+        <v>642.1901413347921</v>
       </c>
       <c r="AD2" t="n">
-        <v>466143.4498627027</v>
+        <v>518874.098319086</v>
       </c>
       <c r="AE2" t="n">
-        <v>637798.032899768</v>
+        <v>709946.4324298188</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987839084971667e-06</v>
+        <v>3.895524123861637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>576927.4837949747</v>
+        <v>642190.1413347921</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.7197888556992</v>
+        <v>411.4503478035315</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.8162407125382</v>
+        <v>562.9645177730405</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.9734275638531</v>
+        <v>509.235974322444</v>
       </c>
       <c r="AD3" t="n">
-        <v>358719.7888556992</v>
+        <v>411450.3478035316</v>
       </c>
       <c r="AE3" t="n">
-        <v>490816.2407125382</v>
+        <v>562964.5177730405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243832552358918e-06</v>
+        <v>4.397188838725738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.82465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>443973.4275638531</v>
+        <v>509235.9743224439</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.7959133647914</v>
+        <v>413.5264723126238</v>
       </c>
       <c r="AB4" t="n">
-        <v>493.6568858580272</v>
+        <v>565.8051629185295</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.5429655235271</v>
+        <v>511.8055122821179</v>
       </c>
       <c r="AD4" t="n">
-        <v>360795.9133647914</v>
+        <v>413526.4723126238</v>
       </c>
       <c r="AE4" t="n">
-        <v>493656.8858580272</v>
+        <v>565805.1629185295</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.245959301760037e-06</v>
+        <v>4.401356582312278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>446542.9655235271</v>
+        <v>511805.512282118</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1654.51323332204</v>
+        <v>1756.270298222201</v>
       </c>
       <c r="AB2" t="n">
-        <v>2263.777997803555</v>
+        <v>2403.006503204826</v>
       </c>
       <c r="AC2" t="n">
-        <v>2047.726202925558</v>
+        <v>2173.666935179766</v>
       </c>
       <c r="AD2" t="n">
-        <v>1654513.23332204</v>
+        <v>1756270.298222201</v>
       </c>
       <c r="AE2" t="n">
-        <v>2263777.997803555</v>
+        <v>2403006.503204826</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052326239144753e-06</v>
+        <v>1.810507518385984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2047726.202925558</v>
+        <v>2173666.935179766</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.8120231893773</v>
+        <v>962.8713764188977</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.216554097412</v>
+        <v>1317.443096103455</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.760798759044</v>
+        <v>1191.708176054339</v>
       </c>
       <c r="AD3" t="n">
-        <v>891812.0231893773</v>
+        <v>962871.3764188978</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220216.554097412</v>
+        <v>1317443.096103455</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544126513542219e-06</v>
+        <v>2.656640648226551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45269097222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103760.798759044</v>
+        <v>1191708.176054338</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>750.7132200489451</v>
+        <v>811.6822076430211</v>
       </c>
       <c r="AB4" t="n">
-        <v>1027.158946800805</v>
+        <v>1110.579405388919</v>
       </c>
       <c r="AC4" t="n">
-        <v>929.1283385447716</v>
+        <v>1004.587265646584</v>
       </c>
       <c r="AD4" t="n">
-        <v>750713.2200489452</v>
+        <v>811682.2076430211</v>
       </c>
       <c r="AE4" t="n">
-        <v>1027158.946800805</v>
+        <v>1110579.405388918</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.724076789109995e-06</v>
+        <v>2.966241715587443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>929128.3385447717</v>
+        <v>1004587.265646584</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.0348210377136</v>
+        <v>738.9184677772181</v>
       </c>
       <c r="AB5" t="n">
-        <v>927.7171549289665</v>
+        <v>1011.020846394882</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.1771317217497</v>
+        <v>914.5304357916237</v>
       </c>
       <c r="AD5" t="n">
-        <v>678034.8210377137</v>
+        <v>738918.4677772181</v>
       </c>
       <c r="AE5" t="n">
-        <v>927717.1549289664</v>
+        <v>1011020.846394882</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825250960001027e-06</v>
+        <v>3.14030997526854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>839177.1317217497</v>
+        <v>914530.4357916238</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>643.2040604944866</v>
+        <v>694.0826824531181</v>
       </c>
       <c r="AB6" t="n">
-        <v>880.0601717290175</v>
+        <v>949.6745468992013</v>
       </c>
       <c r="AC6" t="n">
-        <v>796.0684641114079</v>
+        <v>859.0389410197389</v>
       </c>
       <c r="AD6" t="n">
-        <v>643204.0604944866</v>
+        <v>694082.682453118</v>
       </c>
       <c r="AE6" t="n">
-        <v>880060.1717290175</v>
+        <v>949674.5468992013</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.88325620840213e-06</v>
+        <v>3.240106915066786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.03081597222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>796068.464111408</v>
+        <v>859038.9410197389</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>607.2024698528922</v>
+        <v>668.171367938417</v>
       </c>
       <c r="AB7" t="n">
-        <v>830.8012071351038</v>
+        <v>914.221543253669</v>
       </c>
       <c r="AC7" t="n">
-        <v>751.5107059629464</v>
+        <v>826.9695222835328</v>
       </c>
       <c r="AD7" t="n">
-        <v>607202.4698528922</v>
+        <v>668171.367938417</v>
       </c>
       <c r="AE7" t="n">
-        <v>830801.2071351039</v>
+        <v>914221.5432536689</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.92412789333162e-06</v>
+        <v>3.310425880898222e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.79644097222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>751510.7059629464</v>
+        <v>826969.5222835328</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>588.2121052898572</v>
+        <v>649.1810033753819</v>
       </c>
       <c r="AB8" t="n">
-        <v>804.8177525442034</v>
+        <v>888.2380886627684</v>
       </c>
       <c r="AC8" t="n">
-        <v>728.007075810194</v>
+        <v>803.4658921307802</v>
       </c>
       <c r="AD8" t="n">
-        <v>588212.1052898571</v>
+        <v>649181.0033753819</v>
       </c>
       <c r="AE8" t="n">
-        <v>804817.7525442033</v>
+        <v>888238.0886627684</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.95255620814206e-06</v>
+        <v>3.35933626228449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>728007.075810194</v>
+        <v>803465.8921307802</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>570.767759156094</v>
+        <v>621.7316324607461</v>
       </c>
       <c r="AB9" t="n">
-        <v>780.9496285737523</v>
+        <v>850.6806483965856</v>
       </c>
       <c r="AC9" t="n">
-        <v>706.4168920923604</v>
+        <v>769.4928812514034</v>
       </c>
       <c r="AD9" t="n">
-        <v>570767.759156094</v>
+        <v>621731.6324607461</v>
       </c>
       <c r="AE9" t="n">
-        <v>780949.6285737524</v>
+        <v>850680.6483965856</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.974475683197923e-06</v>
+        <v>3.397048307191749e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>706416.8920923604</v>
+        <v>769492.8812514035</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>553.2138948209542</v>
+        <v>604.0071759250141</v>
       </c>
       <c r="AB10" t="n">
-        <v>756.9316569685755</v>
+        <v>826.429265016562</v>
       </c>
       <c r="AC10" t="n">
-        <v>684.6911619877467</v>
+        <v>747.5560158641388</v>
       </c>
       <c r="AD10" t="n">
-        <v>553213.8948209542</v>
+        <v>604007.1759250141</v>
       </c>
       <c r="AE10" t="n">
-        <v>756931.6569685754</v>
+        <v>826429.265016562</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.99534225770525e-06</v>
+        <v>3.432948856492107e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.41015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>684691.1619877467</v>
+        <v>747556.0158641387</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>537.191150928196</v>
+        <v>587.9844320322557</v>
       </c>
       <c r="AB11" t="n">
-        <v>735.0086319009317</v>
+        <v>804.5062399489181</v>
       </c>
       <c r="AC11" t="n">
-        <v>664.8604396634</v>
+        <v>727.725293539792</v>
       </c>
       <c r="AD11" t="n">
-        <v>537191.1509281959</v>
+        <v>587984.4320322557</v>
       </c>
       <c r="AE11" t="n">
-        <v>735008.6319009317</v>
+        <v>804506.239948918</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010561456543163e-06</v>
+        <v>3.459133202082736e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.33203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>664860.4396634001</v>
+        <v>727725.293539792</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>530.8994352924877</v>
+        <v>581.6927163965477</v>
       </c>
       <c r="AB12" t="n">
-        <v>726.400028997252</v>
+        <v>795.8976370452383</v>
       </c>
       <c r="AC12" t="n">
-        <v>657.0734297385975</v>
+        <v>719.9382836149894</v>
       </c>
       <c r="AD12" t="n">
-        <v>530899.4352924877</v>
+        <v>581692.7163965476</v>
       </c>
       <c r="AE12" t="n">
-        <v>726400.028997252</v>
+        <v>795897.6370452383</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.016208832212577e-06</v>
+        <v>3.468849405792466e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.30164930555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>657073.4297385975</v>
+        <v>719938.2836149894</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>530.1000247071497</v>
+        <v>580.8933058112095</v>
       </c>
       <c r="AB13" t="n">
-        <v>725.3062401668865</v>
+        <v>794.8038482148729</v>
       </c>
       <c r="AC13" t="n">
-        <v>656.0840305790597</v>
+        <v>718.9488844554518</v>
       </c>
       <c r="AD13" t="n">
-        <v>530100.0247071497</v>
+        <v>580893.3058112095</v>
       </c>
       <c r="AE13" t="n">
-        <v>725306.2401668865</v>
+        <v>794803.8482148729</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.019176097394812e-06</v>
+        <v>3.473954529775545e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>656084.0305790597</v>
+        <v>718948.8844554517</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.3669987164344</v>
+        <v>435.071851613962</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.5396406021531</v>
+        <v>595.2845013936713</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.4783134990922</v>
+        <v>538.4713840677036</v>
       </c>
       <c r="AD2" t="n">
-        <v>383366.9987164343</v>
+        <v>435071.851613962</v>
       </c>
       <c r="AE2" t="n">
-        <v>524539.6406021531</v>
+        <v>595284.5013936714</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132947113004068e-06</v>
+        <v>4.275834562835694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.65581597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>474478.3134990922</v>
+        <v>538471.3840677036</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.6265881714979</v>
+        <v>391.7140550946554</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.0062782558261</v>
+        <v>535.960451384973</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.4814685416056</v>
+        <v>484.8091381300084</v>
       </c>
       <c r="AD3" t="n">
-        <v>348626.5881714979</v>
+        <v>391714.0550946554</v>
       </c>
       <c r="AE3" t="n">
-        <v>477006.2782558262</v>
+        <v>535960.451384973</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251393263103219e-06</v>
+        <v>4.513278866701005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>431481.4685416056</v>
+        <v>484809.1381300084</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.580120078734</v>
+        <v>1237.823044922997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1572.906236187274</v>
+        <v>1693.644098962285</v>
       </c>
       <c r="AC2" t="n">
-        <v>1422.790272593328</v>
+        <v>1532.005083201746</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149580.120078734</v>
+        <v>1237823.044922997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1572906.236187274</v>
+        <v>1693644.098962285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286210183645239e-06</v>
+        <v>2.277973809527049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1422790.272593328</v>
+        <v>1532005.083201746</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.615442889258</v>
+        <v>766.4157020091274</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.1906667511829</v>
+        <v>1048.643775363339</v>
       </c>
       <c r="AC3" t="n">
-        <v>875.7879083805846</v>
+        <v>948.5626852234435</v>
       </c>
       <c r="AD3" t="n">
-        <v>707615.442889258</v>
+        <v>766415.7020091274</v>
       </c>
       <c r="AE3" t="n">
-        <v>968190.6667511829</v>
+        <v>1048643.775363339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731134418158034e-06</v>
+        <v>3.065967689789752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.47612847222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>875787.9083805846</v>
+        <v>948562.6852234436</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.0816602754509</v>
+        <v>666.7965785407484</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.0041542583929</v>
+        <v>912.340495748351</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.5988455011355</v>
+        <v>825.2679993120557</v>
       </c>
       <c r="AD4" t="n">
-        <v>608081.6602754509</v>
+        <v>666796.5785407485</v>
       </c>
       <c r="AE4" t="n">
-        <v>832004.1542583929</v>
+        <v>912340.495748351</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890057254775554e-06</v>
+        <v>3.347431842502688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.42578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>752598.8455011356</v>
+        <v>825267.9993120558</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>554.4194353442963</v>
+        <v>613.2196049556143</v>
       </c>
       <c r="AB5" t="n">
-        <v>758.5811306973065</v>
+        <v>839.0341168399142</v>
       </c>
       <c r="AC5" t="n">
-        <v>686.1832122588587</v>
+        <v>758.9578783204912</v>
       </c>
       <c r="AD5" t="n">
-        <v>554419.4353442963</v>
+        <v>613219.6049556143</v>
       </c>
       <c r="AE5" t="n">
-        <v>758581.1306973066</v>
+        <v>839034.1168399142</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.972653343938072e-06</v>
+        <v>3.493715653868835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.94835069444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>686183.2122588587</v>
+        <v>758957.8783204912</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>525.115969338141</v>
+        <v>583.9161389494592</v>
       </c>
       <c r="AB6" t="n">
-        <v>718.4868357300044</v>
+        <v>798.939821872612</v>
       </c>
       <c r="AC6" t="n">
-        <v>649.9154605305393</v>
+        <v>722.6901265921719</v>
       </c>
       <c r="AD6" t="n">
-        <v>525115.969338141</v>
+        <v>583916.1389494592</v>
       </c>
       <c r="AE6" t="n">
-        <v>718486.8357300044</v>
+        <v>798939.821872612</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.023007104319077e-06</v>
+        <v>3.582895905135426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.67491319444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>649915.4605305394</v>
+        <v>722690.1265921718</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>500.8125558226374</v>
+        <v>549.7985631981916</v>
       </c>
       <c r="AB7" t="n">
-        <v>685.2338331671593</v>
+        <v>752.2586495685144</v>
       </c>
       <c r="AC7" t="n">
-        <v>619.8360778614101</v>
+        <v>680.4641398553405</v>
       </c>
       <c r="AD7" t="n">
-        <v>500812.5558226374</v>
+        <v>549798.5631981916</v>
       </c>
       <c r="AE7" t="n">
-        <v>685233.8331671593</v>
+        <v>752258.6495685144</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.059727534320245e-06</v>
+        <v>3.647930515248809e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>619836.0778614101</v>
+        <v>680464.1398553405</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>482.5399858229117</v>
+        <v>531.5259931984659</v>
       </c>
       <c r="AB8" t="n">
-        <v>660.2324967646402</v>
+        <v>727.2573131659951</v>
       </c>
       <c r="AC8" t="n">
-        <v>597.2208339155512</v>
+        <v>657.8488959094817</v>
       </c>
       <c r="AD8" t="n">
-        <v>482539.9858229117</v>
+        <v>531525.9931984659</v>
       </c>
       <c r="AE8" t="n">
-        <v>660232.4967646402</v>
+        <v>727257.3131659952</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.084804901150311e-06</v>
+        <v>3.692344395326243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.35807291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>597220.8339155512</v>
+        <v>657848.8959094817</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>478.1348478486941</v>
+        <v>527.1208552242482</v>
       </c>
       <c r="AB9" t="n">
-        <v>654.2051926473442</v>
+        <v>721.2300090486991</v>
       </c>
       <c r="AC9" t="n">
-        <v>591.7687672438353</v>
+        <v>652.3968292377658</v>
       </c>
       <c r="AD9" t="n">
-        <v>478134.8478486941</v>
+        <v>527120.8552242483</v>
       </c>
       <c r="AE9" t="n">
-        <v>654205.1926473442</v>
+        <v>721230.0090486992</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.089382515730402e-06</v>
+        <v>3.700451690895932e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.33637152777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>591768.7672438354</v>
+        <v>652396.8292377659</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>480.4051082518098</v>
+        <v>529.391115627364</v>
       </c>
       <c r="AB10" t="n">
-        <v>657.3114630877072</v>
+        <v>724.3362794890623</v>
       </c>
       <c r="AC10" t="n">
-        <v>594.5785795930483</v>
+        <v>655.2066415869787</v>
       </c>
       <c r="AD10" t="n">
-        <v>480405.1082518098</v>
+        <v>529391.115627364</v>
       </c>
       <c r="AE10" t="n">
-        <v>657311.4630877073</v>
+        <v>724336.2794890624</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.089581542451275e-06</v>
+        <v>3.700804182007658e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.33420138888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>594578.5795930483</v>
+        <v>655206.6415869787</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1387.676661355783</v>
+        <v>1477.611135254193</v>
       </c>
       <c r="AB2" t="n">
-        <v>1898.680428040593</v>
+        <v>2021.732742857364</v>
       </c>
       <c r="AC2" t="n">
-        <v>1717.473032803115</v>
+        <v>1828.781407398783</v>
       </c>
       <c r="AD2" t="n">
-        <v>1387676.661355783</v>
+        <v>1477611.135254193</v>
       </c>
       <c r="AE2" t="n">
-        <v>1898680.428040593</v>
+        <v>2021732.742857364</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163408984865176e-06</v>
+        <v>2.028883681657966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.18793402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1717473.032803115</v>
+        <v>1828781.407398783</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>794.0232314347451</v>
+        <v>863.9532324369529</v>
       </c>
       <c r="AB3" t="n">
-        <v>1086.417615081708</v>
+        <v>1182.098927546838</v>
       </c>
       <c r="AC3" t="n">
-        <v>982.7314426950087</v>
+        <v>1069.281064988032</v>
       </c>
       <c r="AD3" t="n">
-        <v>794023.231434745</v>
+        <v>863953.2324369529</v>
       </c>
       <c r="AE3" t="n">
-        <v>1086417.615081708</v>
+        <v>1182098.927546838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631814680749547e-06</v>
+        <v>2.845742314467627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.96657986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>982731.4426950087</v>
+        <v>1069281.064988032</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>673.369782987275</v>
+        <v>733.3829331502288</v>
       </c>
       <c r="AB4" t="n">
-        <v>921.3342440614025</v>
+        <v>1003.446883707683</v>
       </c>
       <c r="AC4" t="n">
-        <v>833.4033969089145</v>
+        <v>907.6793214731679</v>
       </c>
       <c r="AD4" t="n">
-        <v>673369.782987275</v>
+        <v>733382.9331502288</v>
       </c>
       <c r="AE4" t="n">
-        <v>921334.2440614025</v>
+        <v>1003446.883707683</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.805077986658482e-06</v>
+        <v>3.147898390758794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.72309027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>833403.3969089144</v>
+        <v>907679.3214731679</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>621.4800016947735</v>
+        <v>671.4910496724526</v>
       </c>
       <c r="AB5" t="n">
-        <v>850.3363560814159</v>
+        <v>918.7636782561984</v>
       </c>
       <c r="AC5" t="n">
-        <v>769.1814477115762</v>
+        <v>831.0781622963473</v>
       </c>
       <c r="AD5" t="n">
-        <v>621480.0016947734</v>
+        <v>671491.0496724526</v>
       </c>
       <c r="AE5" t="n">
-        <v>850336.3560814159</v>
+        <v>918763.6782561984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.896146038272971e-06</v>
+        <v>3.306713120784652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>769181.4477115762</v>
+        <v>831078.1622963473</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>579.0723895419145</v>
+        <v>639.0001988502966</v>
       </c>
       <c r="AB6" t="n">
-        <v>792.312390242067</v>
+        <v>874.3082627661502</v>
       </c>
       <c r="AC6" t="n">
-        <v>716.6952077347873</v>
+        <v>790.8655092671017</v>
       </c>
       <c r="AD6" t="n">
-        <v>579072.3895419145</v>
+        <v>639000.1988502966</v>
       </c>
       <c r="AE6" t="n">
-        <v>792312.3902420669</v>
+        <v>874308.2627661502</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.951040377736522e-06</v>
+        <v>3.40244405547904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>716695.2077347874</v>
+        <v>790865.5092671018</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>555.2858400904541</v>
+        <v>615.2136493988362</v>
       </c>
       <c r="AB7" t="n">
-        <v>759.7665838940791</v>
+        <v>841.7624564181624</v>
       </c>
       <c r="AC7" t="n">
-        <v>687.2555274663255</v>
+        <v>761.42582899864</v>
       </c>
       <c r="AD7" t="n">
-        <v>555285.8400904541</v>
+        <v>615213.6493988362</v>
       </c>
       <c r="AE7" t="n">
-        <v>759766.5838940791</v>
+        <v>841762.4564181624</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.988579135629004e-06</v>
+        <v>3.467908371389056e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.64019097222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>687255.5274663254</v>
+        <v>761425.8289986399</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>534.7906273197502</v>
+        <v>584.7163344428579</v>
       </c>
       <c r="AB8" t="n">
-        <v>731.7241295962291</v>
+        <v>800.0346846488139</v>
       </c>
       <c r="AC8" t="n">
-        <v>661.8894056488302</v>
+        <v>723.6804972016623</v>
       </c>
       <c r="AD8" t="n">
-        <v>534790.6273197503</v>
+        <v>584716.3344428579</v>
       </c>
       <c r="AE8" t="n">
-        <v>731724.1295962291</v>
+        <v>800034.6846488139</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.016952586399685e-06</v>
+        <v>3.517389191985978e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.49045138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>661889.4056488302</v>
+        <v>723680.4972016623</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>518.3540688871709</v>
+        <v>568.2797760102786</v>
       </c>
       <c r="AB9" t="n">
-        <v>709.234905218993</v>
+        <v>777.5454602715778</v>
       </c>
       <c r="AC9" t="n">
-        <v>641.5465212823331</v>
+        <v>703.3376128351653</v>
       </c>
       <c r="AD9" t="n">
-        <v>518354.0688871709</v>
+        <v>568279.7760102786</v>
       </c>
       <c r="AE9" t="n">
-        <v>709234.9052189931</v>
+        <v>777545.4602715778</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.035770716979552e-06</v>
+        <v>3.550206368533077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.39279513888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>641546.5212823331</v>
+        <v>703337.6128351652</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>503.8292415538404</v>
+        <v>553.7549486769479</v>
       </c>
       <c r="AB10" t="n">
-        <v>689.3613956713729</v>
+        <v>757.6719507239577</v>
       </c>
       <c r="AC10" t="n">
-        <v>623.5697115932919</v>
+        <v>685.3608031461241</v>
       </c>
       <c r="AD10" t="n">
-        <v>503829.2415538404</v>
+        <v>553754.948676948</v>
       </c>
       <c r="AE10" t="n">
-        <v>689361.3956713729</v>
+        <v>757671.9507239577</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.051078729938305e-06</v>
+        <v>3.57690220644963e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.31684027777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>623569.711593292</v>
+        <v>685360.8031461241</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>504.7726773081247</v>
+        <v>554.6983844312323</v>
       </c>
       <c r="AB11" t="n">
-        <v>690.6522460918327</v>
+        <v>758.9628011444177</v>
       </c>
       <c r="AC11" t="n">
-        <v>624.737365061343</v>
+        <v>686.5284566141751</v>
       </c>
       <c r="AD11" t="n">
-        <v>504772.6773081247</v>
+        <v>554698.3844312322</v>
       </c>
       <c r="AE11" t="n">
-        <v>690652.2460918326</v>
+        <v>758962.8011444176</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.053028795283369e-06</v>
+        <v>3.580302950133267e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.30598958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>624737.3650613429</v>
+        <v>686528.4566141751</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1986.636453588321</v>
+        <v>2100.348132150663</v>
       </c>
       <c r="AB2" t="n">
-        <v>2718.203640014254</v>
+        <v>2873.788975228456</v>
       </c>
       <c r="AC2" t="n">
-        <v>2458.782099634062</v>
+        <v>2599.51858882081</v>
       </c>
       <c r="AD2" t="n">
-        <v>1986636.453588321</v>
+        <v>2100348.132150664</v>
       </c>
       <c r="AE2" t="n">
-        <v>2718203.640014254</v>
+        <v>2873788.975228456</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494059418941418e-07</v>
+        <v>1.613927178032235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51258680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2458782.099634062</v>
+        <v>2599518.58882081</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>988.1047261227928</v>
+        <v>1070.633447004444</v>
       </c>
       <c r="AB3" t="n">
-        <v>1351.968478385146</v>
+        <v>1464.887915205624</v>
       </c>
       <c r="AC3" t="n">
-        <v>1222.938504307744</v>
+        <v>1325.081068561501</v>
       </c>
       <c r="AD3" t="n">
-        <v>988104.7261227928</v>
+        <v>1070633.447004444</v>
       </c>
       <c r="AE3" t="n">
-        <v>1351968.478385146</v>
+        <v>1464887.915205624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459306952320635e-06</v>
+        <v>2.480725101364774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99522569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1222938.504307744</v>
+        <v>1325081.068561501</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.8739008679447</v>
+        <v>879.8132014650201</v>
       </c>
       <c r="AB4" t="n">
-        <v>1119.051153217485</v>
+        <v>1203.799236863492</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.250481752566</v>
+        <v>1088.910327240079</v>
       </c>
       <c r="AD4" t="n">
-        <v>817873.9008679447</v>
+        <v>879813.2014650202</v>
       </c>
       <c r="AE4" t="n">
-        <v>1119051.153217485</v>
+        <v>1203799.236863492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651766820597153e-06</v>
+        <v>2.807894121891729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36545138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012250.481752566</v>
+        <v>1088910.327240079</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>736.4730892385795</v>
+        <v>798.4976411816756</v>
       </c>
       <c r="AB5" t="n">
-        <v>1007.67497159583</v>
+        <v>1092.539699894485</v>
       </c>
       <c r="AC5" t="n">
-        <v>911.5038865874282</v>
+        <v>988.2692443256541</v>
       </c>
       <c r="AD5" t="n">
-        <v>736473.0892385795</v>
+        <v>798497.6411816756</v>
       </c>
       <c r="AE5" t="n">
-        <v>1007674.97159583</v>
+        <v>1092539.699894485</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.756984489415319e-06</v>
+        <v>2.986757185436538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>911503.8865874282</v>
+        <v>988269.2443256541</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>696.4137126847999</v>
+        <v>748.1009288125977</v>
       </c>
       <c r="AB6" t="n">
-        <v>952.8639652999844</v>
+        <v>1023.584694685079</v>
       </c>
       <c r="AC6" t="n">
-        <v>861.923965804728</v>
+        <v>925.8952080344759</v>
       </c>
       <c r="AD6" t="n">
-        <v>696413.7126847999</v>
+        <v>748100.9288125976</v>
       </c>
       <c r="AE6" t="n">
-        <v>952863.9652999844</v>
+        <v>1023584.694685079</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.820322137997273e-06</v>
+        <v>3.094426990235873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.21961805555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>861923.965804728</v>
+        <v>925895.2080344759</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>657.8617400521856</v>
+        <v>719.80095114071</v>
       </c>
       <c r="AB7" t="n">
-        <v>900.1154555510448</v>
+        <v>984.8634167275025</v>
       </c>
       <c r="AC7" t="n">
-        <v>814.2096997932287</v>
+        <v>890.8694344995157</v>
       </c>
       <c r="AD7" t="n">
-        <v>657861.7400521856</v>
+        <v>719800.95114071</v>
       </c>
       <c r="AE7" t="n">
-        <v>900115.4555510448</v>
+        <v>984863.4167275025</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.863802069118912e-06</v>
+        <v>3.168339991450276e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.95920138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>814209.6997932286</v>
+        <v>890869.4344995157</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>638.4057348804822</v>
+        <v>700.3449459690066</v>
       </c>
       <c r="AB8" t="n">
-        <v>873.4948909367506</v>
+        <v>958.2428521132083</v>
       </c>
       <c r="AC8" t="n">
-        <v>790.1297645035257</v>
+        <v>866.7894992098127</v>
       </c>
       <c r="AD8" t="n">
-        <v>638405.7348804822</v>
+        <v>700344.9459690066</v>
       </c>
       <c r="AE8" t="n">
-        <v>873494.8909367506</v>
+        <v>958242.8521132083</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.892976914676722e-06</v>
+        <v>3.217935295295438e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.78993055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>790129.7645035257</v>
+        <v>866789.4992098127</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>619.0804277306839</v>
+        <v>681.0196388192085</v>
       </c>
       <c r="AB9" t="n">
-        <v>847.053153122017</v>
+        <v>931.8011142984748</v>
       </c>
       <c r="AC9" t="n">
-        <v>766.211589034618</v>
+        <v>842.8713237409052</v>
       </c>
       <c r="AD9" t="n">
-        <v>619080.4277306839</v>
+        <v>681019.6388192085</v>
       </c>
       <c r="AE9" t="n">
-        <v>847053.1531220169</v>
+        <v>931801.1142984747</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.920551849349103e-06</v>
+        <v>3.264810856671672e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.63368055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>766211.589034618</v>
+        <v>842871.3237409052</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>604.1097469100494</v>
+        <v>655.8822143838677</v>
       </c>
       <c r="AB10" t="n">
-        <v>826.5696071633998</v>
+        <v>897.4069812011435</v>
       </c>
       <c r="AC10" t="n">
-        <v>747.682963953454</v>
+        <v>811.7597184339143</v>
       </c>
       <c r="AD10" t="n">
-        <v>604109.7469100493</v>
+        <v>655882.2143838677</v>
       </c>
       <c r="AE10" t="n">
-        <v>826569.6071633998</v>
+        <v>897406.9812011435</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937680307063688e-06</v>
+        <v>3.293928099574315e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.54036458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>747682.9639534539</v>
+        <v>811759.7184339142</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>591.3255701525733</v>
+        <v>642.9274454257995</v>
       </c>
       <c r="AB11" t="n">
-        <v>809.0777325257475</v>
+        <v>879.6816947886442</v>
       </c>
       <c r="AC11" t="n">
-        <v>731.8604892812189</v>
+        <v>795.7261084790283</v>
       </c>
       <c r="AD11" t="n">
-        <v>591325.5701525733</v>
+        <v>642927.4454257996</v>
       </c>
       <c r="AE11" t="n">
-        <v>809077.7325257475</v>
+        <v>879681.6947886442</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.95311474148782e-06</v>
+        <v>3.320165615156917e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.45789930555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>731860.4892812188</v>
+        <v>795726.1084790283</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>575.6280930149123</v>
+        <v>627.2299682881385</v>
       </c>
       <c r="AB12" t="n">
-        <v>787.5997517821843</v>
+        <v>858.2037140450809</v>
       </c>
       <c r="AC12" t="n">
-        <v>712.4323368752861</v>
+        <v>776.2979560730953</v>
       </c>
       <c r="AD12" t="n">
-        <v>575628.0930149123</v>
+        <v>627229.9682881385</v>
       </c>
       <c r="AE12" t="n">
-        <v>787599.7517821842</v>
+        <v>858203.7140450809</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.968455063506926e-06</v>
+        <v>3.346243145888405e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.37543402777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>712432.3368752861</v>
+        <v>776297.9560730953</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>564.3214769515469</v>
+        <v>615.923352224773</v>
       </c>
       <c r="AB13" t="n">
-        <v>772.1295408715912</v>
+        <v>842.733503134488</v>
       </c>
       <c r="AC13" t="n">
-        <v>698.4385811814227</v>
+        <v>762.304200379232</v>
       </c>
       <c r="AD13" t="n">
-        <v>564321.4769515469</v>
+        <v>615923.352224773</v>
       </c>
       <c r="AE13" t="n">
-        <v>772129.5408715912</v>
+        <v>842733.503134488</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.977866304009445e-06</v>
+        <v>3.362241630999747e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>698438.5811814227</v>
+        <v>762304.2003792321</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>557.420620415896</v>
+        <v>609.0224956891223</v>
       </c>
       <c r="AB14" t="n">
-        <v>762.68748451521</v>
+        <v>833.291446778107</v>
       </c>
       <c r="AC14" t="n">
-        <v>689.8976614316852</v>
+        <v>753.7632806294946</v>
       </c>
       <c r="AD14" t="n">
-        <v>557420.6204158959</v>
+        <v>609022.4956891222</v>
       </c>
       <c r="AE14" t="n">
-        <v>762687.48451521</v>
+        <v>833291.446778107</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.98266603666573e-06</v>
+        <v>3.370400858406532e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.30164930555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>689897.6614316852</v>
+        <v>753763.2806294946</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>557.3368505360157</v>
+        <v>608.938725809242</v>
       </c>
       <c r="AB15" t="n">
-        <v>762.5728668698916</v>
+        <v>833.1768291327884</v>
       </c>
       <c r="AC15" t="n">
-        <v>689.7939827335691</v>
+        <v>753.6596019313785</v>
       </c>
       <c r="AD15" t="n">
-        <v>557336.8505360157</v>
+        <v>608938.725809242</v>
       </c>
       <c r="AE15" t="n">
-        <v>762572.8668698916</v>
+        <v>833176.8291327883</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.985489408816486e-06</v>
+        <v>3.375200403939935e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>689793.9827335691</v>
+        <v>753659.6019313785</v>
       </c>
     </row>
   </sheetData>
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>950.3585575082291</v>
+        <v>1027.223728397461</v>
       </c>
       <c r="AB2" t="n">
-        <v>1300.322505243268</v>
+        <v>1405.492823105926</v>
       </c>
       <c r="AC2" t="n">
-        <v>1176.221550356948</v>
+        <v>1271.354560690262</v>
       </c>
       <c r="AD2" t="n">
-        <v>950358.557508229</v>
+        <v>1027223.728397461</v>
       </c>
       <c r="AE2" t="n">
-        <v>1300322.505243268</v>
+        <v>1405492.823105926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424293198417287e-06</v>
+        <v>2.568337681406898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1176221.550356948</v>
+        <v>1271354.560690262</v>
       </c>
     </row>
     <row r="3">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>624.9069337714842</v>
+        <v>682.4705605923874</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.0252357343446</v>
+        <v>933.786329478689</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.4228272713134</v>
+        <v>844.6670727705869</v>
       </c>
       <c r="AD3" t="n">
-        <v>624906.9337714842</v>
+        <v>682470.5605923875</v>
       </c>
       <c r="AE3" t="n">
-        <v>855025.2357343446</v>
+        <v>933786.329478689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.839088429695579e-06</v>
+        <v>3.316311640521324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>773422.8272713134</v>
+        <v>844667.0727705868</v>
       </c>
     </row>
     <row r="4">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>542.4883287630573</v>
+        <v>590.5291500773784</v>
       </c>
       <c r="AB4" t="n">
-        <v>742.2564643095819</v>
+        <v>807.9880354432918</v>
       </c>
       <c r="AC4" t="n">
-        <v>671.4165491193652</v>
+        <v>730.8747913589133</v>
       </c>
       <c r="AD4" t="n">
-        <v>542488.3287630574</v>
+        <v>590529.1500773784</v>
       </c>
       <c r="AE4" t="n">
-        <v>742256.4643095819</v>
+        <v>807988.0354432918</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.984989648748547e-06</v>
+        <v>3.579406064529908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.13064236111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>671416.5491193652</v>
+        <v>730874.7913589133</v>
       </c>
     </row>
     <row r="5">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.1492336844049</v>
+        <v>550.7127709967572</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.7485377357176</v>
+        <v>753.5095090105135</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.3514843097406</v>
+        <v>681.5956190277876</v>
       </c>
       <c r="AD5" t="n">
-        <v>493149.2336844049</v>
+        <v>550712.7709967572</v>
       </c>
       <c r="AE5" t="n">
-        <v>674748.5377357176</v>
+        <v>753509.5090105135</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.062267405385813e-06</v>
+        <v>3.718756146750784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71397569444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>610351.4843097406</v>
+        <v>681595.6190277876</v>
       </c>
     </row>
     <row r="6">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.5177291279375</v>
+        <v>513.4732095876869</v>
       </c>
       <c r="AB6" t="n">
-        <v>636.9418941856119</v>
+        <v>702.5566981971239</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.1530537580994</v>
+        <v>635.5056729657085</v>
       </c>
       <c r="AD6" t="n">
-        <v>465517.7291279375</v>
+        <v>513473.2095876869</v>
       </c>
       <c r="AE6" t="n">
-        <v>636941.8941856119</v>
+        <v>702556.6981971238</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.107982441920902e-06</v>
+        <v>3.801191175627164e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>576153.0537580994</v>
+        <v>635505.6729657085</v>
       </c>
     </row>
     <row r="7">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>450.9726517040709</v>
+        <v>498.9281321638204</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.0406775707494</v>
+        <v>682.6554815822616</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.1511813254266</v>
+        <v>617.5038005330357</v>
       </c>
       <c r="AD7" t="n">
-        <v>450972.6517040709</v>
+        <v>498928.1321638203</v>
       </c>
       <c r="AE7" t="n">
-        <v>617040.6775707494</v>
+        <v>682655.4815822616</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.129261824183338e-06</v>
+        <v>3.839562937398131e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>558151.1813254266</v>
+        <v>617503.8005330357</v>
       </c>
     </row>
     <row r="8">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>452.9407446649465</v>
+        <v>500.8962251246959</v>
       </c>
       <c r="AB8" t="n">
-        <v>619.7335091859529</v>
+        <v>685.3483131974651</v>
       </c>
       <c r="AC8" t="n">
-        <v>560.5870128706879</v>
+        <v>619.9396320782972</v>
       </c>
       <c r="AD8" t="n">
-        <v>452940.7446649465</v>
+        <v>500896.2251246959</v>
       </c>
       <c r="AE8" t="n">
-        <v>619733.5091859529</v>
+        <v>685348.3131974651</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.12895637850493e-06</v>
+        <v>3.839012146559314e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>560587.0128706879</v>
+        <v>619939.6320782972</v>
       </c>
     </row>
   </sheetData>
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.7702215242341</v>
+        <v>755.5322650205678</v>
       </c>
       <c r="AB2" t="n">
-        <v>945.1422917208399</v>
+        <v>1033.752576732239</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.9392379145398</v>
+        <v>935.0926816897669</v>
       </c>
       <c r="AD2" t="n">
-        <v>690770.221524234</v>
+        <v>755532.2650205678</v>
       </c>
       <c r="AE2" t="n">
-        <v>945142.2917208399</v>
+        <v>1033752.576732239</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.66616670546264e-06</v>
+        <v>3.108534494305771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81293402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>854939.2379145399</v>
+        <v>935092.6816897669</v>
       </c>
     </row>
     <row r="3">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.9295386951777</v>
+        <v>548.269269491443</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.4479413591982</v>
+        <v>750.1662024512644</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.0795764295065</v>
+        <v>678.5713929541928</v>
       </c>
       <c r="AD3" t="n">
-        <v>492929.5386951777</v>
+        <v>548269.2694914429</v>
       </c>
       <c r="AE3" t="n">
-        <v>674447.9413591982</v>
+        <v>750166.2024512645</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025914475349927e-06</v>
+        <v>3.779708842153332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.36067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>610079.5764295064</v>
+        <v>678571.3929541928</v>
       </c>
     </row>
     <row r="4">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.3012668794674</v>
+        <v>482.7262490217532</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.6524445459319</v>
+        <v>660.4873502906476</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.854035803327</v>
+        <v>597.4513645787257</v>
       </c>
       <c r="AD4" t="n">
-        <v>427301.2668794674</v>
+        <v>482726.2490217533</v>
       </c>
       <c r="AE4" t="n">
-        <v>584652.4445459319</v>
+        <v>660487.3502906476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151592867837084e-06</v>
+        <v>4.014184550348898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.69661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>528854.035803327</v>
+        <v>597451.3645787257</v>
       </c>
     </row>
     <row r="5">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>409.3582896240891</v>
+        <v>455.702232976042</v>
       </c>
       <c r="AB5" t="n">
-        <v>560.1020714768343</v>
+        <v>623.5118993214597</v>
       </c>
       <c r="AC5" t="n">
-        <v>506.646715883279</v>
+        <v>564.0047987546658</v>
       </c>
       <c r="AD5" t="n">
-        <v>409358.2896240891</v>
+        <v>455702.232976042</v>
       </c>
       <c r="AE5" t="n">
-        <v>560102.0714768344</v>
+        <v>623511.8993214597</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.190091818447073e-06</v>
+        <v>4.086011286277159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>506646.715883279</v>
+        <v>564004.7987546658</v>
       </c>
     </row>
     <row r="6">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.6595162531287</v>
+        <v>458.0034596050816</v>
       </c>
       <c r="AB6" t="n">
-        <v>563.25071127364</v>
+        <v>626.6605391182655</v>
       </c>
       <c r="AC6" t="n">
-        <v>509.4948539170214</v>
+        <v>566.8529367884081</v>
       </c>
       <c r="AD6" t="n">
-        <v>411659.5162531287</v>
+        <v>458003.4596050816</v>
       </c>
       <c r="AE6" t="n">
-        <v>563250.71127364</v>
+        <v>626660.5391182655</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190197876162252e-06</v>
+        <v>4.086209156073106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>509494.8539170214</v>
+        <v>566852.9367884081</v>
       </c>
     </row>
   </sheetData>
@@ -31195,28 +31195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.6967747639948</v>
+        <v>599.379192434872</v>
       </c>
       <c r="AB2" t="n">
-        <v>734.3322046227346</v>
+        <v>820.0970538331276</v>
       </c>
       <c r="AC2" t="n">
-        <v>664.2485696552624</v>
+        <v>741.8281420287374</v>
       </c>
       <c r="AD2" t="n">
-        <v>536696.7747639947</v>
+        <v>599379.192434872</v>
       </c>
       <c r="AE2" t="n">
-        <v>734332.2046227346</v>
+        <v>820097.0538331276</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868172928113215e-06</v>
+        <v>3.5925658193538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.74522569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>664248.5696552624</v>
+        <v>741828.1420287373</v>
       </c>
     </row>
     <row r="3">
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.1738747497767</v>
+        <v>447.8894697741612</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.3260851566943</v>
+        <v>612.82213203386</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.8535605382532</v>
+        <v>554.335247853812</v>
       </c>
       <c r="AD3" t="n">
-        <v>394173.8747497767</v>
+        <v>447889.4697741612</v>
       </c>
       <c r="AE3" t="n">
-        <v>539326.0851566943</v>
+        <v>612822.1320338601</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18326528479287e-06</v>
+        <v>4.198500106010138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.90494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>487853.5605382532</v>
+        <v>554335.2478538121</v>
       </c>
     </row>
     <row r="4">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.4813570748601</v>
+        <v>431.1969520992447</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.4866460519677</v>
+        <v>589.9826929291335</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.1938854463276</v>
+        <v>533.6755727618863</v>
       </c>
       <c r="AD4" t="n">
-        <v>377481.3570748601</v>
+        <v>431196.9520992447</v>
       </c>
       <c r="AE4" t="n">
-        <v>516486.6460519676</v>
+        <v>589982.6929291334</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229344250602568e-06</v>
+        <v>4.287111666036482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67925347222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>467193.8854463276</v>
+        <v>533675.5727618863</v>
       </c>
     </row>
   </sheetData>
@@ -31704,28 +31704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.328126827256</v>
+        <v>374.5699351272796</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.7600514721758</v>
+        <v>512.5031101004167</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.4082149808145</v>
+        <v>463.5905325750649</v>
       </c>
       <c r="AD2" t="n">
-        <v>324328.126827256</v>
+        <v>374569.9351272796</v>
       </c>
       <c r="AE2" t="n">
-        <v>443760.0514721758</v>
+        <v>512503.1101004167</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>4.605730498514671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>401408.2149808145</v>
+        <v>463590.5325750649</v>
       </c>
     </row>
     <row r="3">
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.8507783807769</v>
+        <v>378.0925866808004</v>
       </c>
       <c r="AB3" t="n">
-        <v>448.5798987361215</v>
+        <v>517.3229573643623</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.7680627865873</v>
+        <v>467.9503803808377</v>
       </c>
       <c r="AD3" t="n">
-        <v>327850.7783807769</v>
+        <v>378092.5866808004</v>
       </c>
       <c r="AE3" t="n">
-        <v>448579.8987361215</v>
+        <v>517322.9573643623</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>4.605730498514671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>405768.0627865873</v>
+        <v>467950.3803808377</v>
       </c>
     </row>
   </sheetData>
@@ -32107,28 +32107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1263.10239689668</v>
+        <v>1352.123838427774</v>
       </c>
       <c r="AB2" t="n">
-        <v>1728.232423578976</v>
+        <v>1850.035487230641</v>
       </c>
       <c r="AC2" t="n">
-        <v>1563.292346662038</v>
+        <v>1673.470696870462</v>
       </c>
       <c r="AD2" t="n">
-        <v>1263102.39689668</v>
+        <v>1352123.838427774</v>
       </c>
       <c r="AE2" t="n">
-        <v>1728232.423578976</v>
+        <v>1850035.487230641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223966038289064e-06</v>
+        <v>2.15046004653611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.45876736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1563292.346662038</v>
+        <v>1673470.696870462</v>
       </c>
     </row>
     <row r="3">
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>750.2907377156245</v>
+        <v>819.5769786523645</v>
       </c>
       <c r="AB3" t="n">
-        <v>1026.580887833751</v>
+        <v>1121.381379376618</v>
       </c>
       <c r="AC3" t="n">
-        <v>928.6054487142221</v>
+        <v>1014.358314397564</v>
       </c>
       <c r="AD3" t="n">
-        <v>750290.7377156245</v>
+        <v>819576.9786523645</v>
       </c>
       <c r="AE3" t="n">
-        <v>1026580.887833751</v>
+        <v>1121381.379376618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.680602173098493e-06</v>
+        <v>2.952751722116441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>928605.4487142222</v>
+        <v>1014358.314397564</v>
       </c>
     </row>
     <row r="4">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.1229546108076</v>
+        <v>700.584310431932</v>
       </c>
       <c r="AB4" t="n">
-        <v>877.2127108470559</v>
+        <v>958.5703611313974</v>
       </c>
       <c r="AC4" t="n">
-        <v>793.4927608995845</v>
+        <v>867.0857512269677</v>
       </c>
       <c r="AD4" t="n">
-        <v>641122.9546108076</v>
+        <v>700584.310431932</v>
       </c>
       <c r="AE4" t="n">
-        <v>877212.7108470559</v>
+        <v>958570.3611313973</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.845944435411418e-06</v>
+        <v>3.243251554615769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.57769097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>793492.7608995845</v>
+        <v>867085.7512269677</v>
       </c>
     </row>
     <row r="5">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.0641242758305</v>
+        <v>640.6153436353186</v>
       </c>
       <c r="AB5" t="n">
-        <v>808.72001074301</v>
+        <v>876.5181751161762</v>
       </c>
       <c r="AC5" t="n">
-        <v>731.5369079633602</v>
+        <v>792.8645106840726</v>
       </c>
       <c r="AD5" t="n">
-        <v>591064.1242758306</v>
+        <v>640615.3436353186</v>
       </c>
       <c r="AE5" t="n">
-        <v>808720.01074301</v>
+        <v>876518.1751161761</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936838365199881e-06</v>
+        <v>3.40294860369074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>731536.9079633602</v>
+        <v>792864.5106840726</v>
       </c>
     </row>
     <row r="6">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.7045626368371</v>
+        <v>611.0805776033897</v>
       </c>
       <c r="AB6" t="n">
-        <v>754.8665220872299</v>
+        <v>836.1074052493736</v>
       </c>
       <c r="AC6" t="n">
-        <v>682.8231206810417</v>
+        <v>756.3104879764862</v>
       </c>
       <c r="AD6" t="n">
-        <v>551704.562636837</v>
+        <v>611080.5776033896</v>
       </c>
       <c r="AE6" t="n">
-        <v>754866.5220872299</v>
+        <v>836107.4052493736</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.986962970034472e-06</v>
+        <v>3.491015557080947e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>682823.1206810417</v>
+        <v>756310.4879764862</v>
       </c>
     </row>
     <row r="7">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>529.9381616749876</v>
+        <v>589.3141766415401</v>
       </c>
       <c r="AB7" t="n">
-        <v>725.0847720253892</v>
+        <v>806.3256551875329</v>
       </c>
       <c r="AC7" t="n">
-        <v>655.8836990461543</v>
+        <v>729.3710663415987</v>
       </c>
       <c r="AD7" t="n">
-        <v>529938.1616749875</v>
+        <v>589314.1766415401</v>
       </c>
       <c r="AE7" t="n">
-        <v>725084.7720253891</v>
+        <v>806325.6551875329</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.022020650429589e-06</v>
+        <v>3.552610518587654e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.56857638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>655883.6990461544</v>
+        <v>729371.0663415988</v>
       </c>
     </row>
     <row r="8">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>508.2608109133344</v>
+        <v>557.7266894182508</v>
       </c>
       <c r="AB8" t="n">
-        <v>695.4248643760747</v>
+        <v>763.1062616270433</v>
       </c>
       <c r="AC8" t="n">
-        <v>629.0544913549486</v>
+        <v>690.2764710437225</v>
       </c>
       <c r="AD8" t="n">
-        <v>508260.8109133344</v>
+        <v>557726.6894182508</v>
       </c>
       <c r="AE8" t="n">
-        <v>695424.8643760746</v>
+        <v>763106.2616270432</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.049791060180777e-06</v>
+        <v>3.601402033039595e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.42534722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>629054.4913549486</v>
+        <v>690276.4710437225</v>
       </c>
     </row>
     <row r="9">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>493.9117212844984</v>
+        <v>543.3775997894148</v>
       </c>
       <c r="AB9" t="n">
-        <v>675.7918069087444</v>
+        <v>743.473204159713</v>
       </c>
       <c r="AC9" t="n">
-        <v>611.2951853371312</v>
+        <v>672.5171650259049</v>
       </c>
       <c r="AD9" t="n">
-        <v>493911.7212844984</v>
+        <v>543377.5997894148</v>
       </c>
       <c r="AE9" t="n">
-        <v>675791.8069087444</v>
+        <v>743473.204159713</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066925993857042e-06</v>
+        <v>3.631507435573771e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>611295.1853371313</v>
+        <v>672517.1650259049</v>
       </c>
     </row>
     <row r="10">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>492.9152290186424</v>
+        <v>542.3811075235587</v>
       </c>
       <c r="AB10" t="n">
-        <v>674.4283622284642</v>
+        <v>742.1097594794327</v>
       </c>
       <c r="AC10" t="n">
-        <v>610.0618659035302</v>
+        <v>671.283845592304</v>
       </c>
       <c r="AD10" t="n">
-        <v>492915.2290186425</v>
+        <v>542381.1075235588</v>
       </c>
       <c r="AE10" t="n">
-        <v>674428.3622284641</v>
+        <v>742109.7594794327</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.068895526463509e-06</v>
+        <v>3.634967826669655e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.32986111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>610061.8659035303</v>
+        <v>671283.845592304</v>
       </c>
     </row>
     <row r="11">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>494.7920167405675</v>
+        <v>544.257895245484</v>
       </c>
       <c r="AB11" t="n">
-        <v>676.9962659876328</v>
+        <v>744.6776632386013</v>
       </c>
       <c r="AC11" t="n">
-        <v>612.3846925319995</v>
+        <v>673.606672220773</v>
       </c>
       <c r="AD11" t="n">
-        <v>494792.0167405675</v>
+        <v>544257.895245484</v>
       </c>
       <c r="AE11" t="n">
-        <v>676996.2659876328</v>
+        <v>744677.6632386013</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.068797049833186e-06</v>
+        <v>3.63479480711486e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.32986111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>612384.6925319994</v>
+        <v>673606.6722207731</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1810.482671847662</v>
+        <v>1923.234305489661</v>
       </c>
       <c r="AB2" t="n">
-        <v>2477.182264480309</v>
+        <v>2631.454023880304</v>
       </c>
       <c r="AC2" t="n">
-        <v>2240.763465905452</v>
+        <v>2380.311745110086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1810482.671847662</v>
+        <v>1923234.305489661</v>
       </c>
       <c r="AE2" t="n">
-        <v>2477182.264480309</v>
+        <v>2631454.023880304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.000575143495975e-06</v>
+        <v>1.710871988887227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.58159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2240763.465905452</v>
+        <v>2380311.745110086</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>940.3070285989237</v>
+        <v>1012.112376005833</v>
       </c>
       <c r="AB3" t="n">
-        <v>1286.569559947397</v>
+        <v>1384.816804097883</v>
       </c>
       <c r="AC3" t="n">
-        <v>1163.781166857735</v>
+        <v>1252.651831917372</v>
       </c>
       <c r="AD3" t="n">
-        <v>940307.0285989237</v>
+        <v>1012112.376005833</v>
       </c>
       <c r="AE3" t="n">
-        <v>1286569.559947397</v>
+        <v>1384816.804097883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499723972667905e-06</v>
+        <v>2.564360860429983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1163781.166857735</v>
+        <v>1252651.831917372</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>783.3955198490163</v>
+        <v>844.857709137489</v>
       </c>
       <c r="AB4" t="n">
-        <v>1071.876311228569</v>
+        <v>1155.97159013348</v>
       </c>
       <c r="AC4" t="n">
-        <v>969.5779404727652</v>
+        <v>1045.647283987456</v>
       </c>
       <c r="AD4" t="n">
-        <v>783395.5198490163</v>
+        <v>844857.709137489</v>
       </c>
       <c r="AE4" t="n">
-        <v>1071876.311228569</v>
+        <v>1155971.59013348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.688185869005444e-06</v>
+        <v>2.886609700521981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.19835069444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>969577.9404727652</v>
+        <v>1045647.283987456</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.1449557361514</v>
+        <v>769.6923963706447</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.9151695887604</v>
+        <v>1053.12709314632</v>
       </c>
       <c r="AC5" t="n">
-        <v>876.4432656841898</v>
+        <v>952.6181214495929</v>
       </c>
       <c r="AD5" t="n">
-        <v>708144.9557361513</v>
+        <v>769692.3963706447</v>
       </c>
       <c r="AE5" t="n">
-        <v>968915.1695887604</v>
+        <v>1053127.09314632</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789249272630559e-06</v>
+        <v>3.059416857973128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>876443.2656841897</v>
+        <v>952618.1214495929</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>670.5053839510804</v>
+        <v>721.795007321709</v>
       </c>
       <c r="AB6" t="n">
-        <v>917.4150469317141</v>
+        <v>987.5917723658954</v>
       </c>
       <c r="AC6" t="n">
-        <v>829.8582424526558</v>
+        <v>893.3373997050516</v>
       </c>
       <c r="AD6" t="n">
-        <v>670505.3839510804</v>
+        <v>721795.0073217091</v>
       </c>
       <c r="AE6" t="n">
-        <v>917415.0469317141</v>
+        <v>987591.7723658954</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.849792419590956e-06</v>
+        <v>3.162938892202078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>829858.2424526558</v>
+        <v>893337.3997050516</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>633.1116303173941</v>
+        <v>694.5737300973158</v>
       </c>
       <c r="AB7" t="n">
-        <v>866.2512635141238</v>
+        <v>950.3464199494857</v>
       </c>
       <c r="AC7" t="n">
-        <v>783.5774587156195</v>
+        <v>859.6466914490837</v>
       </c>
       <c r="AD7" t="n">
-        <v>633111.630317394</v>
+        <v>694573.7300973157</v>
       </c>
       <c r="AE7" t="n">
-        <v>866251.2635141239</v>
+        <v>950346.4199494857</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.893159532695818e-06</v>
+        <v>3.237091822676421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.87673611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>783577.4587156195</v>
+        <v>859646.6914490837</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>612.1874219101486</v>
+        <v>673.6495216900704</v>
       </c>
       <c r="AB8" t="n">
-        <v>837.6218384604057</v>
+        <v>921.7169948957677</v>
       </c>
       <c r="AC8" t="n">
-        <v>757.6803858073777</v>
+        <v>833.7496185408422</v>
       </c>
       <c r="AD8" t="n">
-        <v>612187.4219101486</v>
+        <v>673649.5216900704</v>
       </c>
       <c r="AE8" t="n">
-        <v>837621.8384604057</v>
+        <v>921716.9948957677</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.92494942961076e-06</v>
+        <v>3.291449003658706e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.69878472222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>757680.3858073776</v>
+        <v>833749.6185408422</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>594.1525623018327</v>
+        <v>655.6146620817545</v>
       </c>
       <c r="AB9" t="n">
-        <v>812.9457479024558</v>
+        <v>897.0409043378174</v>
       </c>
       <c r="AC9" t="n">
-        <v>735.3593466991678</v>
+        <v>811.428579432632</v>
       </c>
       <c r="AD9" t="n">
-        <v>594152.5623018327</v>
+        <v>655614.6620817545</v>
       </c>
       <c r="AE9" t="n">
-        <v>812945.7479024557</v>
+        <v>897040.9043378175</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.948008966775927e-06</v>
+        <v>3.33087824240108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.57074652777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>735359.3466991677</v>
+        <v>811428.579432632</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>578.3653885889241</v>
+        <v>629.5696711049814</v>
       </c>
       <c r="AB10" t="n">
-        <v>791.3450403475049</v>
+        <v>861.4049986594887</v>
       </c>
       <c r="AC10" t="n">
-        <v>715.8201803564781</v>
+        <v>779.193714576935</v>
       </c>
       <c r="AD10" t="n">
-        <v>578365.3885889241</v>
+        <v>629569.6711049813</v>
       </c>
       <c r="AE10" t="n">
-        <v>791345.0403475049</v>
+        <v>861404.9986594886</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.965849267134164e-06</v>
+        <v>3.361383167847856e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.47526041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>715820.1803564781</v>
+        <v>779193.714576935</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>565.2020936640064</v>
+        <v>616.4063761800636</v>
       </c>
       <c r="AB11" t="n">
-        <v>773.3344395076459</v>
+        <v>843.3943978196295</v>
       </c>
       <c r="AC11" t="n">
-        <v>699.5284859827382</v>
+        <v>762.9020202031952</v>
       </c>
       <c r="AD11" t="n">
-        <v>565202.0936640063</v>
+        <v>616406.3761800636</v>
       </c>
       <c r="AE11" t="n">
-        <v>773334.4395076459</v>
+        <v>843394.3978196295</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.979229492402841e-06</v>
+        <v>3.384261861932937e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.40581597222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>699528.4859827382</v>
+        <v>762902.0202031952</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>552.3617245845513</v>
+        <v>603.5660071006085</v>
       </c>
       <c r="AB12" t="n">
-        <v>755.7656800560317</v>
+        <v>825.8256383680155</v>
       </c>
       <c r="AC12" t="n">
-        <v>683.6364642752773</v>
+        <v>747.0099984957342</v>
       </c>
       <c r="AD12" t="n">
-        <v>552361.7245845513</v>
+        <v>603566.0071006085</v>
       </c>
       <c r="AE12" t="n">
-        <v>755765.6800560317</v>
+        <v>825825.6383680154</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.991660765524804e-06</v>
+        <v>3.405517953600637e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.34071180555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>683636.4642752772</v>
+        <v>747009.9984957342</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>544.3788070241758</v>
+        <v>595.583089540233</v>
       </c>
       <c r="AB13" t="n">
-        <v>744.843100068459</v>
+        <v>814.9030583804425</v>
       </c>
       <c r="AC13" t="n">
-        <v>673.7563199917812</v>
+        <v>737.1298542122381</v>
       </c>
       <c r="AD13" t="n">
-        <v>544378.8070241758</v>
+        <v>595583.089540233</v>
       </c>
       <c r="AE13" t="n">
-        <v>744843.1000684589</v>
+        <v>814903.0583804426</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.999916649201221e-06</v>
+        <v>3.419634594631858e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.29730902777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>673756.3199917811</v>
+        <v>737129.8542122381</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>544.8252516701345</v>
+        <v>596.0295341861919</v>
       </c>
       <c r="AB14" t="n">
-        <v>745.4539453288074</v>
+        <v>815.513903640791</v>
       </c>
       <c r="AC14" t="n">
-        <v>674.3088670378087</v>
+        <v>737.6824012582656</v>
       </c>
       <c r="AD14" t="n">
-        <v>544825.2516701346</v>
+        <v>596029.5341861919</v>
       </c>
       <c r="AE14" t="n">
-        <v>745453.9453288075</v>
+        <v>815513.903640791</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.99982175398655e-06</v>
+        <v>3.419472334390119e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.29730902777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>674308.8670378086</v>
+        <v>737682.4012582656</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.1199470326985</v>
+        <v>353.8622664871615</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.4785724721767</v>
+        <v>484.1699643091424</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.6350034502879</v>
+        <v>437.9614624522899</v>
       </c>
       <c r="AD2" t="n">
-        <v>305119.9470326985</v>
+        <v>353862.2664871615</v>
       </c>
       <c r="AE2" t="n">
-        <v>417478.5724721767</v>
+        <v>484169.9643091424</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151417465263704e-06</v>
+        <v>4.61147855042315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.30034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>377635.0034502879</v>
+        <v>437961.4624522899</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.7286706026097</v>
+        <v>842.2911270821451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.754433969005</v>
+        <v>1152.459879335749</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.3266423762188</v>
+        <v>1042.470725939544</v>
       </c>
       <c r="AD2" t="n">
-        <v>776728.6706026096</v>
+        <v>842291.1270821451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062754.433969005</v>
+        <v>1152459.879335749</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.578755803421019e-06</v>
+        <v>2.908751057207183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>961326.6423762188</v>
+        <v>1042470.725939544</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.3910052933223</v>
+        <v>590.6604691437988</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.177349109591</v>
+        <v>808.1677119833564</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.3948091244257</v>
+        <v>731.0373198221719</v>
       </c>
       <c r="AD3" t="n">
-        <v>534391.0052933224</v>
+        <v>590660.4691437988</v>
       </c>
       <c r="AE3" t="n">
-        <v>731177.349109591</v>
+        <v>808167.7119833564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958238282053465e-06</v>
+        <v>3.60792192234152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>661394.8091244258</v>
+        <v>731037.3198221718</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.3097555127777</v>
+        <v>519.4938785086824</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.9208472764291</v>
+        <v>710.794443027997</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.420331325863</v>
+        <v>642.9572189916704</v>
       </c>
       <c r="AD4" t="n">
-        <v>463309.7555127777</v>
+        <v>519493.8785086825</v>
       </c>
       <c r="AE4" t="n">
-        <v>633920.8472764291</v>
+        <v>710794.4430279969</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.093999157774629e-06</v>
+        <v>3.858052176764407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83116319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>573420.331325863</v>
+        <v>642957.2189916704</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.426590366967</v>
+        <v>475.2325588963433</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.1921617872973</v>
+        <v>650.2341528627859</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.2468045921833</v>
+        <v>588.1767179229262</v>
       </c>
       <c r="AD5" t="n">
-        <v>428426.590366967</v>
+        <v>475232.5588963433</v>
       </c>
       <c r="AE5" t="n">
-        <v>586192.1617872973</v>
+        <v>650234.1528627858</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.161200268697422e-06</v>
+        <v>3.981865689923696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>530246.8045921832</v>
+        <v>588176.7179229262</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.3152810075533</v>
+        <v>471.1212495369297</v>
       </c>
       <c r="AB6" t="n">
-        <v>580.5668869435796</v>
+        <v>644.6088780190681</v>
       </c>
       <c r="AC6" t="n">
-        <v>525.1583980844271</v>
+        <v>583.08831141517</v>
       </c>
       <c r="AD6" t="n">
-        <v>424315.2810075533</v>
+        <v>471121.2495369297</v>
       </c>
       <c r="AE6" t="n">
-        <v>580566.8869435795</v>
+        <v>644608.8780190682</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.16945670378747e-06</v>
+        <v>3.997077614557575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.45355902777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>525158.3980844271</v>
+        <v>583088.31141517</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1051.961374376978</v>
+        <v>1129.586236958177</v>
       </c>
       <c r="AB2" t="n">
-        <v>1439.339961683018</v>
+        <v>1545.549723233857</v>
       </c>
       <c r="AC2" t="n">
-        <v>1301.971375866314</v>
+        <v>1398.044626841078</v>
       </c>
       <c r="AD2" t="n">
-        <v>1051961.374376978</v>
+        <v>1129586.236958177</v>
       </c>
       <c r="AE2" t="n">
-        <v>1439339.961683018</v>
+        <v>1545549.723233857</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352869473579181e-06</v>
+        <v>2.416802584461184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.14149305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1301971.375866314</v>
+        <v>1398044.626841078</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.5387446629471</v>
+        <v>725.7360787623409</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.3559601788016</v>
+        <v>992.9841201787685</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.1865492424776</v>
+        <v>898.2151094108718</v>
       </c>
       <c r="AD3" t="n">
-        <v>667538.7446629471</v>
+        <v>725736.0787623408</v>
       </c>
       <c r="AE3" t="n">
-        <v>913355.9601788017</v>
+        <v>992984.1201787685</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781118821258838e-06</v>
+        <v>3.18183879118984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>826186.5492424775</v>
+        <v>898215.1094108719</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>575.4250699913856</v>
+        <v>633.5370632362075</v>
       </c>
       <c r="AB4" t="n">
-        <v>787.3219667246511</v>
+        <v>866.8333596024204</v>
       </c>
       <c r="AC4" t="n">
-        <v>712.18106323377</v>
+        <v>784.1040003702258</v>
       </c>
       <c r="AD4" t="n">
-        <v>575425.0699913856</v>
+        <v>633537.0632362075</v>
       </c>
       <c r="AE4" t="n">
-        <v>787321.9667246512</v>
+        <v>866833.3596024204</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.936983069274766e-06</v>
+        <v>3.460278895565472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.27387152777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>712181.0632337701</v>
+        <v>784104.0003702258</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.6993473466856</v>
+        <v>582.8965919375282</v>
       </c>
       <c r="AB5" t="n">
-        <v>717.9167951412301</v>
+        <v>797.5448326716484</v>
       </c>
       <c r="AC5" t="n">
-        <v>649.3998238155006</v>
+        <v>721.4282732026685</v>
       </c>
       <c r="AD5" t="n">
-        <v>524699.3473466856</v>
+        <v>582896.5919375282</v>
       </c>
       <c r="AE5" t="n">
-        <v>717916.7951412301</v>
+        <v>797544.8326716484</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.015669862011019e-06</v>
+        <v>3.60084710836195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>649399.8238155006</v>
+        <v>721428.2732026685</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>493.798103219243</v>
+        <v>542.4522652783265</v>
       </c>
       <c r="AB6" t="n">
-        <v>675.6363496593868</v>
+        <v>742.2071206587646</v>
       </c>
       <c r="AC6" t="n">
-        <v>611.1545647094665</v>
+        <v>671.3719147573277</v>
       </c>
       <c r="AD6" t="n">
-        <v>493798.1032192431</v>
+        <v>542452.2652783266</v>
       </c>
       <c r="AE6" t="n">
-        <v>675636.3496593868</v>
+        <v>742207.1206587645</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.067792315511504e-06</v>
+        <v>3.693960067733531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>611154.5647094665</v>
+        <v>671371.9147573276</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.6013058010108</v>
+        <v>519.0848756595021</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.8974680612852</v>
+        <v>710.234827285816</v>
       </c>
       <c r="AC7" t="n">
-        <v>582.4447974252878</v>
+        <v>642.4510121904977</v>
       </c>
       <c r="AD7" t="n">
-        <v>470601.3058010107</v>
+        <v>519084.8756595021</v>
       </c>
       <c r="AE7" t="n">
-        <v>643897.4680612852</v>
+        <v>710234.827285816</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.100595249567794e-06</v>
+        <v>3.752560115523367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.39496527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>582444.7974252878</v>
+        <v>642451.0121904977</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>464.386151910873</v>
+        <v>512.8697217693643</v>
       </c>
       <c r="AB8" t="n">
-        <v>635.3936203155606</v>
+        <v>701.7309795400914</v>
       </c>
       <c r="AC8" t="n">
-        <v>574.7525449731899</v>
+        <v>634.7587597383999</v>
       </c>
       <c r="AD8" t="n">
-        <v>464386.151910873</v>
+        <v>512869.7217693643</v>
       </c>
       <c r="AE8" t="n">
-        <v>635393.6203155606</v>
+        <v>701730.9795400915</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>3.768198778583844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>574752.5449731898</v>
+        <v>634758.7597383999</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>466.6706167007044</v>
+        <v>515.1541865591956</v>
       </c>
       <c r="AB9" t="n">
-        <v>638.5193258244816</v>
+        <v>704.8566850490123</v>
       </c>
       <c r="AC9" t="n">
-        <v>577.5799375352946</v>
+        <v>637.5861523005045</v>
       </c>
       <c r="AD9" t="n">
-        <v>466670.6167007044</v>
+        <v>515154.1865591956</v>
       </c>
       <c r="AE9" t="n">
-        <v>638519.3258244816</v>
+        <v>704856.6850490123</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>3.768198778583844e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>577579.9375352946</v>
+        <v>637586.1523005045</v>
       </c>
     </row>
   </sheetData>
